--- a/Level.xlsx
+++ b/Level.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_3B1CEA93F0A6BC7B9EC71A87A1F2985E2C73F912" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6C13C97-C205-49E5-8333-21785A67EC52}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUNGJU SEO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19116720-95A2-4246-8F64-A62B35128CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="2145" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Dist</t>
@@ -58,43 +60,15 @@
     <t>A</t>
   </si>
   <si>
-    <t>6-1</t>
+    <t>B</t>
   </si>
   <si>
-    <t>6-2</t>
+    <t>Q_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Qq_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -104,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +98,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,7 +153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,764 +449,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="9" width="9" style="3"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="10" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>150</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>85</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>120</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>24000</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>52000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <v>150</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>95</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>120</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>34000</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>42000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
         <v>150</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>85</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>110</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>40</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>24000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>42000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
         <v>150</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>95</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>110</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>40</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>34000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>52000</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>250</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>145</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>125</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>55</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>47000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>46000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
         <v>250</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>135</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>125</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>55</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>62000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>61000</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
         <v>250</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>145</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>135</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>61000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
         <v>250</v>
-      </c>
-      <c r="D9" s="3">
-        <v>135</v>
       </c>
       <c r="E9" s="3">
         <v>135</v>
       </c>
       <c r="F9" s="3">
+        <v>135</v>
+      </c>
+      <c r="G9" s="3">
         <v>45</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>62000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>46000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>190</v>
+      </c>
+      <c r="F10" s="3">
+        <v>130</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>80000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>180</v>
+      </c>
+      <c r="F11" s="3">
+        <v>140</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I11" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>190</v>
+      </c>
+      <c r="F12" s="3">
+        <v>140</v>
+      </c>
+      <c r="G12" s="3">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3">
+        <v>80000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>300</v>
+      </c>
+      <c r="E13" s="3">
+        <v>180</v>
+      </c>
+      <c r="F13" s="3">
+        <v>130</v>
+      </c>
+      <c r="G13" s="3">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J13" s="3">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>300</v>
-      </c>
-      <c r="D10" s="3">
-        <v>190</v>
-      </c>
-      <c r="E10" s="3">
-        <v>130</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>150</v>
+      </c>
+      <c r="E14" s="3">
+        <v>85</v>
+      </c>
+      <c r="F14" s="3">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3">
+        <v>34000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>150</v>
+      </c>
+      <c r="E15" s="3">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3">
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3">
+        <v>110</v>
+      </c>
+      <c r="G16" s="3">
         <v>50</v>
       </c>
-      <c r="G10" s="3">
-        <v>80000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>70000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="H16" s="3">
+        <v>34000</v>
+      </c>
+      <c r="I16" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J16" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3">
-        <v>300</v>
-      </c>
-      <c r="D11" s="3">
-        <v>180</v>
-      </c>
-      <c r="E11" s="3">
-        <v>140</v>
-      </c>
-      <c r="F11" s="3">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3">
-        <v>60000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>70000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>150</v>
+      </c>
+      <c r="E17" s="3">
+        <v>95</v>
+      </c>
+      <c r="F17" s="3">
+        <v>110</v>
+      </c>
+      <c r="G17" s="3">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3">
-        <v>300</v>
-      </c>
-      <c r="D12" s="3">
-        <v>190</v>
-      </c>
-      <c r="E12" s="3">
-        <v>140</v>
-      </c>
-      <c r="F12" s="3">
-        <v>60</v>
-      </c>
-      <c r="G12" s="3">
-        <v>80000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>250</v>
+      </c>
+      <c r="E18" s="3">
+        <v>145</v>
+      </c>
+      <c r="F18" s="3">
+        <v>125</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3">
+        <v>62000</v>
+      </c>
+      <c r="I18" s="3">
         <v>61000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="J18" s="3">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3">
-        <v>300</v>
-      </c>
-      <c r="D13" s="3">
-        <v>180</v>
-      </c>
-      <c r="E13" s="3">
-        <v>130</v>
-      </c>
-      <c r="F13" s="3">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3">
-        <v>60000</v>
-      </c>
-      <c r="H13" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I13" s="3">
-        <v>61000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>150</v>
-      </c>
-      <c r="D14" s="3">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3">
-        <v>120</v>
-      </c>
-      <c r="F14" s="3">
-        <v>40</v>
-      </c>
-      <c r="G14" s="3">
-        <v>34000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>42000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>150</v>
-      </c>
-      <c r="D15" s="3">
-        <v>95</v>
-      </c>
-      <c r="E15" s="3">
-        <v>120</v>
-      </c>
-      <c r="F15" s="3">
-        <v>40</v>
-      </c>
-      <c r="G15" s="3">
-        <v>24000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>52000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
-        <v>150</v>
-      </c>
-      <c r="D16" s="3">
-        <v>85</v>
-      </c>
-      <c r="E16" s="3">
-        <v>110</v>
-      </c>
-      <c r="F16" s="3">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3">
-        <v>34000</v>
-      </c>
-      <c r="H16" s="3">
-        <v>52000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>150</v>
-      </c>
-      <c r="D17" s="3">
-        <v>95</v>
-      </c>
-      <c r="E17" s="3">
-        <v>110</v>
-      </c>
-      <c r="F17" s="3">
-        <v>50</v>
-      </c>
-      <c r="G17" s="3">
-        <v>24000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>42000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
         <v>250</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E19" s="3">
+        <v>135</v>
+      </c>
+      <c r="F19" s="3">
+        <v>125</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I19" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>250</v>
+      </c>
+      <c r="E20" s="3">
         <v>145</v>
       </c>
-      <c r="E18" s="3">
-        <v>125</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F20" s="3">
+        <v>135</v>
+      </c>
+      <c r="G20" s="3">
+        <v>55</v>
+      </c>
+      <c r="H20" s="3">
         <v>62000</v>
       </c>
-      <c r="H18" s="3">
-        <v>61000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="I20" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
         <v>250</v>
-      </c>
-      <c r="D19" s="3">
-        <v>135</v>
-      </c>
-      <c r="E19" s="3">
-        <v>125</v>
-      </c>
-      <c r="F19" s="3">
-        <v>45</v>
-      </c>
-      <c r="G19" s="3">
-        <v>47000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>46000</v>
-      </c>
-      <c r="I19" s="3">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3">
-        <v>250</v>
-      </c>
-      <c r="D20" s="3">
-        <v>145</v>
-      </c>
-      <c r="E20" s="3">
-        <v>135</v>
-      </c>
-      <c r="F20" s="3">
-        <v>55</v>
-      </c>
-      <c r="G20" s="3">
-        <v>62000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>46000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>250</v>
-      </c>
-      <c r="D21" s="3">
-        <v>135</v>
       </c>
       <c r="E21" s="3">
         <v>135</v>
       </c>
       <c r="F21" s="3">
+        <v>135</v>
+      </c>
+      <c r="G21" s="3">
         <v>55</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
         <v>300</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>190</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>140</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>70000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>300</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>180</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>130</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>80000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>70000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
         <v>300</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>190</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>130</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>60</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>60000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
         <v>300</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>180</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>140</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>50</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>80000</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>50000</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>81000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DC1C5A3E621BCE4C8E90D7D9425CCE14" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="146d3fc4866552bc46f3d62df25a589b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3be4972-e0a6-4225-b97d-b2a0c47f40e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04184f9c2210f6f7c030ba31078d8d24" ns2:_="">
     <xsd:import namespace="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
@@ -1397,14 +1440,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CB2076-1F49-48CB-BAE5-FBAC704CF666}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E61272-9250-4BF4-9B5D-DAB900547DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DF1D7A-394A-499E-8A78-2BA7AEC8E641}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DF1D7A-394A-499E-8A78-2BA7AEC8E641}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E61272-9250-4BF4-9B5D-DAB900547DE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CB2076-1F49-48CB-BAE5-FBAC704CF666}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Level.xlsx
+++ b/Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUNGJU SEO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19116720-95A2-4246-8F64-A62B35128CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F01142D-3C08-4814-A3B8-414F5F1140D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="2145" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,24 +39,6 @@
     <t>Dist</t>
   </si>
   <si>
-    <t>Time_ExpTrain</t>
-  </si>
-  <si>
-    <t>Time_Plane</t>
-  </si>
-  <si>
-    <t>Time_Hyper</t>
-  </si>
-  <si>
-    <t>Cost_ExpTrain</t>
-  </si>
-  <si>
-    <t>Cost_Plane</t>
-  </si>
-  <si>
-    <t>Cost_Hyper</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -68,6 +50,30 @@
   </si>
   <si>
     <t>Qq_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time_expt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost_expt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time_plane</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost_plane</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time_hyper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost_hyper</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +458,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -467,36 +473,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
@@ -528,7 +534,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -560,7 +566,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>6</v>
@@ -592,7 +598,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -624,7 +630,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -656,7 +662,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
@@ -688,7 +694,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -720,7 +726,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -752,7 +758,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -784,7 +790,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
@@ -816,7 +822,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>8</v>
@@ -848,7 +854,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>8</v>
@@ -880,7 +886,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
@@ -912,7 +918,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -944,7 +950,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -976,7 +982,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>7</v>
@@ -1040,7 +1046,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>7</v>
@@ -1072,7 +1078,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>7</v>
@@ -1104,7 +1110,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
@@ -1136,7 +1142,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
@@ -1168,7 +1174,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>8</v>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -1232,7 +1238,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
         <v>8</v>
@@ -1269,6 +1275,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DC1C5A3E621BCE4C8E90D7D9425CCE14" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="146d3fc4866552bc46f3d62df25a589b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3be4972-e0a6-4225-b97d-b2a0c47f40e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04184f9c2210f6f7c030ba31078d8d24" ns2:_="">
     <xsd:import namespace="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
@@ -1440,15 +1455,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1456,6 +1462,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DF1D7A-394A-499E-8A78-2BA7AEC8E641}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E61272-9250-4BF4-9B5D-DAB900547DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1473,25 +1487,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DF1D7A-394A-499E-8A78-2BA7AEC8E641}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CB2076-1F49-48CB-BAE5-FBAC704CF666}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
